--- a/doc/Protocol.xlsx
+++ b/doc/Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin_g\Documents\_PRIVATE\Arduino\EnigmaIOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin_g\Documents\_PRIVATE\Arduino\EnigmaIOT\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>FF</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>Counter (2 byte)</t>
+  </si>
+  <si>
+    <t>Sensor Command</t>
+  </si>
+  <si>
+    <t>Payload (n)</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -346,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -461,6 +470,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -482,17 +506,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1066,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U26"/>
+  <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1095,21 +1122,21 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -1117,16 +1144,16 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1143,30 +1170,30 @@
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1180,19 +1207,19 @@
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1202,114 +1229,136 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R16" t="s">
         <v>22</v>
       </c>
-      <c r="S13">
+      <c r="S16">
         <v>6</v>
       </c>
-      <c r="T13">
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="U13">
+      <c r="U16">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S17" t="s">
         <v>23</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T17" t="s">
         <v>24</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I18" s="2" t="s">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F19" s="1" t="s">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="4" t="s">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="6" t="s">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1320,6 +1369,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12:B14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/doc/Protocol.xlsx
+++ b/doc/Protocol.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>FF</t>
   </si>
@@ -59,9 +59,6 @@
     <t>FC</t>
   </si>
   <si>
-    <t>-----------------------------------&gt;</t>
-  </si>
-  <si>
     <t>Sensor Data</t>
   </si>
   <si>
@@ -162,6 +159,15 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>Random (31 bits)</t>
+  </si>
+  <si>
+    <t>---------------&gt;</t>
+  </si>
+  <si>
+    <t>SleepyNode (1 bit)</t>
   </si>
 </sst>
 </file>
@@ -513,13 +519,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1095,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1118,25 +1124,25 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -1144,16 +1150,16 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1170,34 +1176,37 @@
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
@@ -1207,82 +1216,82 @@
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -1296,70 +1305,70 @@
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" t="s">
         <v>23</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>24</v>
-      </c>
-      <c r="U17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
